--- a/reports/test_comprehensive_company_editing_report.xlsx
+++ b/reports/test_comprehensive_company_editing_report.xlsx
@@ -526,7 +526,7 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>Verify Comprehensive test: Create company with all fields, then edit and assert all Summary tab fields.</t>
+          <t>Verify all the fields of summary tab are editable and retain values after editing.</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
